--- a/WEEK 1/1.4-Lyons.xlsx
+++ b/WEEK 1/1.4-Lyons.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8c246762b4a926f5/Desktop/MCA 1ST SEM/LAB COUSE 1/WEEK 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8c246762b4a926f5/Desktop/MCA 1ST SEM/LAB COURSE 1/WEEK 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_F25DC773A252ABDACC1048BFC99E72BA5BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{998A63F1-3742-40BD-9F7D-4A17E9F3F25A}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="11_F25DC773A252ABDACC1048BFC99E72BA5BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E74DD99-32C5-47AD-90C0-A728BC50ED50}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -191,10 +191,10 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1227,6 +1227,10 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1493,29 +1497,28 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.5">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
@@ -1601,7 +1604,7 @@
         <v>1699.9875000000002</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" ref="G5:G8" si="3">F5-(B5*E5)</f>
+        <f>F5-(B5*E5)</f>
         <v>440.73750000000018</v>
       </c>
     </row>
@@ -1628,7 +1631,7 @@
         <v>2616.2999999999997</v>
       </c>
       <c r="G6" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="G5:G8" si="3">F6-(B6*E6)</f>
         <v>678.29999999999973</v>
       </c>
     </row>
